--- a/Organización/Procesos/Ciclo de vida IWM/1. Requerimientos/PTLL_Matrizde_Rastreabilidad.xlsx
+++ b/Organización/Procesos/Ciclo de vida IWM/1. Requerimientos/PTLL_Matrizde_Rastreabilidad.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Documents\IWM\CMMI3\Repositorio\Organización\Procesos\Ciclo de vida IWM\1. Requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gus\Desktop\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="7560" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="7560" windowHeight="7665"/>
   </bookViews>
   <sheets>
-    <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
-    <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
+    <sheet name="Matriz de Reastreabilidad" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Matriz de trazabilidad</t>
   </si>
@@ -103,17 +102,26 @@
     <t>Número del nuevo requerimiento</t>
   </si>
   <si>
-    <t>CP01</t>
-  </si>
-  <si>
     <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Casos de Prueba</t>
+  </si>
+  <si>
+    <t>Interfas de Usuario (UI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +138,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,17 +376,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,12 +406,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,12 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,40 +424,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,6 +456,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF63776D"/>
+      <color rgb="FF77635A"/>
       <color rgb="FF4B5A53"/>
     </mruColors>
   </colors>
@@ -750,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT61"/>
+  <dimension ref="A1:BJ61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,196 +773,271 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="16" width="5.42578125" customWidth="1"/>
-    <col min="17" max="41" width="6.5703125" customWidth="1"/>
+    <col min="7" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="32" width="5.28515625" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" customWidth="1"/>
+    <col min="35" max="41" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="34" t="e">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="16" t="e">
         <f>VLOOKUP(L2,A7:C61,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="Q6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -970,8 +1054,26 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
@@ -990,8 +1092,26 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -1010,8 +1130,26 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -1030,8 +1168,26 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -1050,8 +1206,26 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
@@ -1070,8 +1244,26 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
@@ -1090,8 +1282,26 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
@@ -1110,8 +1320,26 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:62" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1128,8 +1356,26 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -1148,8 +1394,26 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -1168,8 +1432,26 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
@@ -1188,8 +1470,26 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -1208,8 +1508,26 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1228,8 +1546,26 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -1248,8 +1584,26 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -1268,8 +1622,26 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -1288,8 +1660,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -1308,8 +1698,26 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -1328,8 +1736,26 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -1348,8 +1774,26 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -1368,8 +1812,26 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
@@ -1388,8 +1850,26 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -1408,8 +1888,26 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
@@ -1428,8 +1926,26 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -1448,8 +1964,26 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
@@ -1468,8 +2002,26 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -1488,8 +2040,26 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -1508,8 +2078,26 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -1528,8 +2116,26 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -1548,8 +2154,26 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
@@ -1568,8 +2192,26 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
@@ -1588,8 +2230,26 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -1608,8 +2268,26 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -1628,8 +2306,26 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
@@ -1648,8 +2344,26 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1666,8 +2380,26 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+    </row>
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
@@ -1684,8 +2416,24 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+    </row>
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
@@ -1703,7 +2451,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
@@ -1721,7 +2469,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
@@ -1739,7 +2487,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
@@ -1757,7 +2505,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
@@ -2010,11 +2758,13 @@
       <c r="P61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="Q5:AF5"/>
     <mergeCell ref="A3:C5"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:P5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:F61">
@@ -2024,963 +2774,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="18" width="5.42578125" customWidth="1"/>
-    <col min="19" max="43" width="6.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-    </row>
-    <row r="5" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:B5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B43">
-      <formula1>"Activo,Concluido,Eliminado,M-Activo,M-Concluido,M-Eliminado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>